--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.92689933333333</v>
+        <v>40.21121066666667</v>
       </c>
       <c r="N2">
-        <v>95.780698</v>
+        <v>120.633632</v>
       </c>
       <c r="O2">
-        <v>0.3275645917322376</v>
+        <v>0.3919993951244425</v>
       </c>
       <c r="P2">
-        <v>0.3275645917322376</v>
+        <v>0.3919993951244425</v>
       </c>
       <c r="Q2">
-        <v>0.4511058029804445</v>
+        <v>0.5681575992462222</v>
       </c>
       <c r="R2">
-        <v>4.059952226824</v>
+        <v>5.113418393216</v>
       </c>
       <c r="S2">
-        <v>0.3275645917322376</v>
+        <v>0.3919993951244425</v>
       </c>
       <c r="T2">
-        <v>0.3275645917322376</v>
+        <v>0.3919993951244425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>68.87869499999999</v>
       </c>
       <c r="O3">
-        <v>0.2355612568904469</v>
+        <v>0.2238215523259795</v>
       </c>
       <c r="P3">
-        <v>0.2355612568904469</v>
+        <v>0.2238215523259796</v>
       </c>
       <c r="Q3">
         <v>0.3244033470733333</v>
@@ -635,10 +635,10 @@
         <v>2.91963012366</v>
       </c>
       <c r="S3">
-        <v>0.2355612568904469</v>
+        <v>0.2238215523259795</v>
       </c>
       <c r="T3">
-        <v>0.2355612568904469</v>
+        <v>0.2238215523259796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.59835433333333</v>
+        <v>12.504156</v>
       </c>
       <c r="N4">
-        <v>37.795063</v>
+        <v>37.512468</v>
       </c>
       <c r="O4">
-        <v>0.1292569864242292</v>
+        <v>0.1218968916199506</v>
       </c>
       <c r="P4">
-        <v>0.1292569864242292</v>
+        <v>0.1218968916199506</v>
       </c>
       <c r="Q4">
-        <v>0.1780063478271111</v>
+        <v>0.176675388176</v>
       </c>
       <c r="R4">
-        <v>1.602057130444</v>
+        <v>1.590078493584</v>
       </c>
       <c r="S4">
-        <v>0.1292569864242292</v>
+        <v>0.1218968916199506</v>
       </c>
       <c r="T4">
-        <v>0.1292569864242292</v>
+        <v>0.1218968916199506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.98267366666667</v>
+        <v>26.90484566666667</v>
       </c>
       <c r="N5">
-        <v>89.948021</v>
+        <v>80.71453700000001</v>
       </c>
       <c r="O5">
-        <v>0.3076171649530862</v>
+        <v>0.2622821609296273</v>
       </c>
       <c r="P5">
-        <v>0.3076171649530862</v>
+        <v>0.2622821609296273</v>
       </c>
       <c r="Q5">
-        <v>0.4236351904608889</v>
+        <v>0.3801475327062223</v>
       </c>
       <c r="R5">
-        <v>3.812716714148</v>
+        <v>3.421327794356</v>
       </c>
       <c r="S5">
-        <v>0.3076171649530862</v>
+        <v>0.2622821609296273</v>
       </c>
       <c r="T5">
-        <v>0.3076171649530862</v>
+        <v>0.2622821609296273</v>
       </c>
     </row>
   </sheetData>
